--- a/data/tarifas.xlsx
+++ b/data/tarifas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecuworldwide-my.sharepoint.com/personal/daniel_calle_am_eculine_net/Documents/Documentos/ASIAPAC/COTIZADOR GITHUB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{06DB657C-D116-4D70-A1A8-ADA8965C387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A56628DB-9B7E-4E4A-9505-E7B5E871EB31}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{06DB657C-D116-4D70-A1A8-ADA8965C387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D75082-F85A-4C67-8AEF-F242BF9FD859}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RATES" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RATES!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RATES!$A$1:$I$65</definedName>
     <definedName name="Dgroup">OFFSET([1]Tariff!$J$136, 0, 0, COUNTA([1]Tariff!$J$136:$J$140),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="58">
   <si>
     <t>POD</t>
   </si>
@@ -77,9 +77,6 @@
     <t>CARGOS NAVIERA</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAS LIBRES </t>
-  </si>
-  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -119,27 +116,9 @@
     <t>WHL</t>
   </si>
   <si>
-    <t>*CANCEL FEE USD 200/CNTR (MSK $350/20 $650/40)</t>
-  </si>
-  <si>
     <t>COSCO</t>
   </si>
   <si>
-    <t>*OWS EMC 20ST ≧16TN: $220</t>
-  </si>
-  <si>
-    <t>*OWS EMC 20ST ≧20TN: $440</t>
-  </si>
-  <si>
-    <t>*OWS EMC 20ST ≧24TN: $850</t>
-  </si>
-  <si>
-    <t>*OWS WHL HKG 20ST &gt;14TN: $110</t>
-  </si>
-  <si>
-    <t>*OWS WHL HKG 20ST &gt;21TN: $250</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -149,18 +128,6 @@
     <t>DALIAN</t>
   </si>
   <si>
-    <t>*OWS MSK 40NOR &gt;25TN: $150</t>
-  </si>
-  <si>
-    <t>*OWS MSK 20ST &gt;17.5TN: $250</t>
-  </si>
-  <si>
-    <t>*OWS ONE 40HC &gt;26.5TN: $75</t>
-  </si>
-  <si>
-    <t>*OWS ONE 20ST &gt;18TN: $250</t>
-  </si>
-  <si>
     <t>SHANTOU</t>
   </si>
   <si>
@@ -246,6 +213,9 @@
   </si>
   <si>
     <t>IVA</t>
+  </si>
+  <si>
+    <t>DIAS LIBRES</t>
   </si>
 </sst>
 </file>
@@ -868,10 +838,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -903,24 +873,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6">
         <v>2510</v>
@@ -932,24 +902,24 @@
         <v>2830</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12">
         <v>2510</v>
@@ -961,24 +931,24 @@
         <v>2830</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6">
         <v>2510</v>
@@ -990,24 +960,24 @@
         <v>2830</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="12">
         <v>2510</v>
@@ -1019,24 +989,24 @@
         <v>2830</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <v>2510</v>
@@ -1048,16 +1018,16 @@
         <v>2830</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12">
         <v>2510</v>
@@ -1077,16 +1047,16 @@
         <v>2830</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>2510</v>
@@ -1106,24 +1076,24 @@
         <v>2830</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12">
         <v>2720</v>
@@ -1135,27 +1105,27 @@
         <v>3040</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
         <v>2780</v>
@@ -1164,24 +1134,24 @@
         <v>3040</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5">
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12">
         <v>2720</v>
@@ -1193,24 +1163,24 @@
         <v>2930</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6">
         <v>2720</v>
@@ -1222,24 +1192,24 @@
         <v>2930</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="12">
         <v>2720</v>
@@ -1251,24 +1221,24 @@
         <v>2930</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6">
         <v>2720</v>
@@ -1280,24 +1250,24 @@
         <v>2930</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="12">
         <v>2720</v>
@@ -1309,24 +1279,24 @@
         <v>2930</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6">
         <v>2720</v>
@@ -1338,27 +1308,27 @@
         <v>2930</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="12">
         <v>2780</v>
@@ -1367,27 +1337,27 @@
         <v>3040</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G17" s="13">
         <v>18</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
         <v>2780</v>
@@ -1396,27 +1366,27 @@
         <v>3040</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G18" s="5">
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="12">
         <v>2780</v>
@@ -1425,27 +1395,27 @@
         <v>3040</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G19" s="13">
         <v>18</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6">
         <v>2780</v>
@@ -1454,27 +1424,27 @@
         <v>2990</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G20" s="5">
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="12">
         <v>2930</v>
@@ -1483,27 +1453,27 @@
         <v>3300</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G21" s="13">
         <v>18</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6">
         <v>2880</v>
@@ -1512,27 +1482,27 @@
         <v>3140</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G22" s="5">
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="12">
         <v>2990</v>
@@ -1541,27 +1511,27 @@
         <v>3350</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G23" s="13">
         <v>18</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="6">
         <v>2830</v>
@@ -1570,27 +1540,27 @@
         <v>3040</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G24" s="5">
         <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="12">
         <v>2880</v>
@@ -1599,27 +1569,27 @@
         <v>3140</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G25" s="13">
         <v>18</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="6">
         <v>2880</v>
@@ -1628,27 +1598,27 @@
         <v>3140</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G26" s="5">
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="12">
         <v>2880</v>
@@ -1657,27 +1627,27 @@
         <v>3140</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G27" s="13">
         <v>18</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="6">
         <v>2880</v>
@@ -1686,27 +1656,27 @@
         <v>3140</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G28" s="5">
         <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="12">
         <v>2880</v>
@@ -1715,27 +1685,27 @@
         <v>3140</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G29" s="13">
         <v>18</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6">
         <v>2930</v>
@@ -1744,27 +1714,27 @@
         <v>3300</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G30" s="5">
         <v>18</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="12">
         <v>2990</v>
@@ -1773,27 +1743,27 @@
         <v>3350</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G31" s="13">
         <v>18</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="6">
         <v>3040</v>
@@ -1802,27 +1772,27 @@
         <v>3460</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G32" s="5">
         <v>18</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="12">
         <v>3200</v>
@@ -1831,27 +1801,27 @@
         <v>3670</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G33" s="13">
         <v>18</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="6">
         <v>2630</v>
@@ -1860,27 +1830,27 @@
         <v>2840</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G34" s="5">
         <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="12">
         <v>2630</v>
@@ -1889,27 +1859,27 @@
         <v>2840</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G35" s="13">
         <v>17</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="6">
         <v>2630</v>
@@ -1918,27 +1888,27 @@
         <v>2840</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G36" s="5">
         <v>17</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="12">
         <v>2630</v>
@@ -1947,27 +1917,27 @@
         <v>2840</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G37" s="13">
         <v>17</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6">
         <v>2630</v>
@@ -1976,16 +1946,16 @@
         <v>2840</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G38" s="5">
         <v>17</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1993,10 +1963,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="12">
         <v>2630</v>
@@ -2005,16 +1975,16 @@
         <v>2840</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G39" s="13">
         <v>17</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,10 +1992,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="6">
         <v>2630</v>
@@ -2034,27 +2004,27 @@
         <v>2840</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G40" s="5">
         <v>17</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="12">
         <v>2630</v>
@@ -2063,27 +2033,27 @@
         <v>2840</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G41" s="13">
         <v>17</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="6">
         <v>2630</v>
@@ -2092,27 +2062,27 @@
         <v>2840</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G42" s="5">
         <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="12">
         <v>2710</v>
@@ -2121,27 +2091,27 @@
         <v>3000</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G43" s="13">
         <v>17</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="6">
         <v>2680</v>
@@ -2150,27 +2120,27 @@
         <v>2950</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G44" s="5">
         <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="12">
         <v>2680</v>
@@ -2179,27 +2149,27 @@
         <v>2950</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G45" s="13">
         <v>17</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6">
         <v>2680</v>
@@ -2208,27 +2178,27 @@
         <v>2950</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G46" s="5">
         <v>17</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="12">
         <v>2680</v>
@@ -2237,27 +2207,27 @@
         <v>2950</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G47" s="13">
         <v>17</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="6">
         <v>2680</v>
@@ -2266,27 +2236,27 @@
         <v>2950</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G48" s="5">
         <v>17</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="12">
         <v>2880</v>
@@ -2295,27 +2265,27 @@
         <v>3250</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G49" s="13">
         <v>17</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="6">
         <v>2680</v>
@@ -2324,27 +2294,27 @@
         <v>2950</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G50" s="5">
         <v>17</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="12">
         <v>2740</v>
@@ -2353,27 +2323,27 @@
         <v>3000</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G51" s="13">
         <v>17</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="6">
         <v>2850</v>
@@ -2382,27 +2352,27 @@
         <v>3160</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G52" s="5">
         <v>17</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="12">
         <v>2790</v>
@@ -2411,27 +2381,27 @@
         <v>3160</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G53" s="13">
         <v>17</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6">
         <v>2850</v>
@@ -2440,27 +2410,27 @@
         <v>3190</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G54" s="5">
         <v>17</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="12">
         <v>2890</v>
@@ -2469,27 +2439,27 @@
         <v>3290</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G55" s="13">
         <v>17</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="6">
         <v>2820</v>
@@ -2498,27 +2468,27 @@
         <v>3160</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G56" s="5">
         <v>17</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="12">
         <v>2840</v>
@@ -2527,27 +2497,27 @@
         <v>3180</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G57" s="13">
         <v>17</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6">
         <v>2760</v>
@@ -2556,27 +2526,27 @@
         <v>3060</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G58" s="5">
         <v>17</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="12">
         <v>2760</v>
@@ -2585,27 +2555,27 @@
         <v>3060</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G59" s="13">
         <v>17</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6">
         <v>2760</v>
@@ -2614,27 +2584,27 @@
         <v>3060</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G60" s="5">
         <v>17</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="12">
         <v>2760</v>
@@ -2643,27 +2613,27 @@
         <v>3060</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G61" s="13">
         <v>17</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="6">
         <v>2880</v>
@@ -2672,27 +2642,27 @@
         <v>3280</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G62" s="5">
         <v>17</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="12">
         <v>2870</v>
@@ -2701,27 +2671,27 @@
         <v>3250</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G63" s="13">
         <v>17</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="6">
         <v>2870</v>
@@ -2730,27 +2700,27 @@
         <v>3310</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G64" s="5">
         <v>17</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="12">
         <v>3060</v>
@@ -2759,70 +2729,20 @@
         <v>3670</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G65" s="13">
         <v>17</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.3543307086614173" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2833,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154F746C-4413-40F1-A1FC-A6668A466177}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2845,16 +2765,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2868,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2882,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2896,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2910,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/tarifas.xlsx
+++ b/data/tarifas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecuworldwide-my.sharepoint.com/personal/daniel_calle_am_eculine_net/Documents/Documentos/ASIAPAC/COTIZADOR GITHUB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{06DB657C-D116-4D70-A1A8-ADA8965C387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D75082-F85A-4C67-8AEF-F242BF9FD859}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{06DB657C-D116-4D70-A1A8-ADA8965C387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4FE7377-4410-4511-8850-C939725A4768}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>20GP</t>
   </si>
   <si>
-    <t>40HQ</t>
-  </si>
-  <si>
     <t>NINGBO</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>DIAS LIBRES</t>
+  </si>
+  <si>
+    <t>40HC</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,33 +864,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>2510</v>
@@ -902,24 +902,24 @@
         <v>2830</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>2510</v>
@@ -931,24 +931,24 @@
         <v>2830</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6">
         <v>2510</v>
@@ -960,24 +960,24 @@
         <v>2830</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="12">
         <v>2510</v>
@@ -989,24 +989,24 @@
         <v>2830</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>2510</v>
@@ -1018,24 +1018,24 @@
         <v>2830</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12">
         <v>2510</v>
@@ -1047,24 +1047,24 @@
         <v>2830</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
         <v>2510</v>
@@ -1076,24 +1076,24 @@
         <v>2830</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12">
         <v>2720</v>
@@ -1105,27 +1105,27 @@
         <v>3040</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6">
         <v>2780</v>
@@ -1134,24 +1134,24 @@
         <v>3040</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="5">
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12">
         <v>2720</v>
@@ -1163,24 +1163,24 @@
         <v>2930</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <v>2720</v>
@@ -1192,24 +1192,24 @@
         <v>2930</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="12">
         <v>2720</v>
@@ -1221,24 +1221,24 @@
         <v>2930</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6">
         <v>2720</v>
@@ -1250,24 +1250,24 @@
         <v>2930</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="12">
         <v>2720</v>
@@ -1279,24 +1279,24 @@
         <v>2930</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="H15" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6">
         <v>2720</v>
@@ -1308,27 +1308,27 @@
         <v>2930</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="12">
         <v>2780</v>
@@ -1337,27 +1337,27 @@
         <v>3040</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="13">
         <v>18</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6">
         <v>2780</v>
@@ -1366,27 +1366,27 @@
         <v>3040</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5">
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="12">
         <v>2780</v>
@@ -1395,27 +1395,27 @@
         <v>3040</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="13">
         <v>18</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6">
         <v>2780</v>
@@ -1424,27 +1424,27 @@
         <v>2990</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="5">
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="12">
         <v>2930</v>
@@ -1453,27 +1453,27 @@
         <v>3300</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="13">
         <v>18</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6">
         <v>2880</v>
@@ -1482,27 +1482,27 @@
         <v>3140</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="5">
         <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="12">
         <v>2990</v>
@@ -1511,27 +1511,27 @@
         <v>3350</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="13">
         <v>18</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="6">
         <v>2830</v>
@@ -1540,27 +1540,27 @@
         <v>3040</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="5">
         <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="12">
         <v>2880</v>
@@ -1569,27 +1569,27 @@
         <v>3140</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="13">
         <v>18</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6">
         <v>2880</v>
@@ -1598,27 +1598,27 @@
         <v>3140</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="5">
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="12">
         <v>2880</v>
@@ -1627,27 +1627,27 @@
         <v>3140</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="13">
         <v>18</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="6">
         <v>2880</v>
@@ -1656,27 +1656,27 @@
         <v>3140</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="5">
         <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="12">
         <v>2880</v>
@@ -1685,27 +1685,27 @@
         <v>3140</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="13">
         <v>18</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="6">
         <v>2930</v>
@@ -1714,27 +1714,27 @@
         <v>3300</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="5">
         <v>18</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="12">
         <v>2990</v>
@@ -1743,27 +1743,27 @@
         <v>3350</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="13">
         <v>18</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="6">
         <v>3040</v>
@@ -1772,27 +1772,27 @@
         <v>3460</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="5">
         <v>18</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="12">
         <v>3200</v>
@@ -1801,27 +1801,27 @@
         <v>3670</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="13">
         <v>18</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="6">
         <v>2630</v>
@@ -1830,27 +1830,27 @@
         <v>2840</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="5">
         <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="12">
         <v>2630</v>
@@ -1859,27 +1859,27 @@
         <v>2840</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="13">
         <v>17</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="6">
         <v>2630</v>
@@ -1888,27 +1888,27 @@
         <v>2840</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5">
         <v>17</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="12">
         <v>2630</v>
@@ -1917,27 +1917,27 @@
         <v>2840</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="13">
         <v>17</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="6">
         <v>2630</v>
@@ -1946,27 +1946,27 @@
         <v>2840</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="5">
         <v>17</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="12">
         <v>2630</v>
@@ -1975,27 +1975,27 @@
         <v>2840</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="13">
         <v>17</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="6">
         <v>2630</v>
@@ -2004,27 +2004,27 @@
         <v>2840</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="5">
         <v>17</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="12">
         <v>2630</v>
@@ -2033,27 +2033,27 @@
         <v>2840</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="13">
         <v>17</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="6">
         <v>2630</v>
@@ -2062,27 +2062,27 @@
         <v>2840</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" s="5">
         <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="12">
         <v>2710</v>
@@ -2091,27 +2091,27 @@
         <v>3000</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="13">
         <v>17</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="6">
         <v>2680</v>
@@ -2120,27 +2120,27 @@
         <v>2950</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" s="5">
         <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="12">
         <v>2680</v>
@@ -2149,27 +2149,27 @@
         <v>2950</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" s="13">
         <v>17</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="6">
         <v>2680</v>
@@ -2178,27 +2178,27 @@
         <v>2950</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="5">
         <v>17</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="12">
         <v>2680</v>
@@ -2207,27 +2207,27 @@
         <v>2950</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" s="13">
         <v>17</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="6">
         <v>2680</v>
@@ -2236,27 +2236,27 @@
         <v>2950</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48" s="5">
         <v>17</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="12">
         <v>2880</v>
@@ -2265,27 +2265,27 @@
         <v>3250</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="13">
         <v>17</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6">
         <v>2680</v>
@@ -2294,27 +2294,27 @@
         <v>2950</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G50" s="5">
         <v>17</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="12">
         <v>2740</v>
@@ -2323,27 +2323,27 @@
         <v>3000</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G51" s="13">
         <v>17</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="6">
         <v>2850</v>
@@ -2352,27 +2352,27 @@
         <v>3160</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" s="5">
         <v>17</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="12">
         <v>2790</v>
@@ -2381,27 +2381,27 @@
         <v>3160</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="13">
         <v>17</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="6">
         <v>2850</v>
@@ -2410,27 +2410,27 @@
         <v>3190</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="5">
         <v>17</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="12">
         <v>2890</v>
@@ -2439,27 +2439,27 @@
         <v>3290</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G55" s="13">
         <v>17</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="6">
         <v>2820</v>
@@ -2468,27 +2468,27 @@
         <v>3160</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G56" s="5">
         <v>17</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="12">
         <v>2840</v>
@@ -2497,27 +2497,27 @@
         <v>3180</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G57" s="13">
         <v>17</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="6">
         <v>2760</v>
@@ -2526,27 +2526,27 @@
         <v>3060</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58" s="5">
         <v>17</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="12">
         <v>2760</v>
@@ -2555,27 +2555,27 @@
         <v>3060</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G59" s="13">
         <v>17</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="6">
         <v>2760</v>
@@ -2584,27 +2584,27 @@
         <v>3060</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G60" s="5">
         <v>17</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="12">
         <v>2760</v>
@@ -2613,27 +2613,27 @@
         <v>3060</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G61" s="13">
         <v>17</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="6">
         <v>2880</v>
@@ -2642,27 +2642,27 @@
         <v>3280</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G62" s="5">
         <v>17</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="12">
         <v>2870</v>
@@ -2671,27 +2671,27 @@
         <v>3250</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63" s="13">
         <v>17</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="6">
         <v>2870</v>
@@ -2700,27 +2700,27 @@
         <v>3310</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64" s="5">
         <v>17</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="12">
         <v>3060</v>
@@ -2729,16 +2729,16 @@
         <v>3670</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G65" s="13">
         <v>17</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2765,30 +2765,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="17">
         <v>200</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2799,38 +2799,38 @@
         <v>50</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="17">
         <v>120</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="17">
         <v>300</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/tarifas.xlsx
+++ b/data/tarifas.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecuworldwide-my.sharepoint.com/personal/daniel_calle_am_eculine_net/Documents/Documentos/ASIAPAC/COTIZADOR GITHUB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{06DB657C-D116-4D70-A1A8-ADA8965C387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4FE7377-4410-4511-8850-C939725A4768}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{06DB657C-D116-4D70-A1A8-ADA8965C387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9122D3FA-34C7-4065-A3FF-B770F8CF12BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="512" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RATES" sheetId="2" r:id="rId1"/>
     <sheet name="GASTOS_LOCALES" sheetId="3" r:id="rId2"/>
+    <sheet name="REMARKS" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RATES!$A$1:$I$65</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="64">
   <si>
     <t>POD</t>
   </si>
@@ -216,6 +217,24 @@
   </si>
   <si>
     <t>40HC</t>
+  </si>
+  <si>
+    <t>TARIFAS SUJETAS A ESPACIOS Y DISPONIBILIDAD DE EQUIPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGA GENERAL NO OVERWEIGHT NO IMO </t>
+  </si>
+  <si>
+    <t>TARIFA APLICA A FECHA DE BOOKING O DE ZARPE BAJO CRITERIO NAVIERA</t>
+  </si>
+  <si>
+    <t>TARIFA APLICA A NUEVAS COORDINACIONES</t>
+  </si>
+  <si>
+    <t>PESO MAXIMO EQUIPOS DE 40 EL INDICADO EN PAYLOAD DEL CONTENEDOR</t>
+  </si>
+  <si>
+    <t>OWS MAS DE 18TN EQUIPO DE 20 A CRITERIO NAVIERA</t>
   </si>
 </sst>
 </file>
@@ -229,7 +248,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="168" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +305,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -421,7 +446,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -840,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,4 +2864,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3805A486-29BF-4244-AD2E-4DBCFFE9D0EA}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>